--- a/Excel/Spell.xlsx
+++ b/Excel/Spell.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\06006854\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EBF2A6-11F4-42D6-9498-ED772598DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4F168-9114-4BDD-858C-EC102C8721C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -123,18 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Track</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,19 +130,50 @@
     <t>10</t>
   </si>
   <si>
-    <t>Through</t>
-  </si>
-  <si>
     <t>(-2,0)(-1,-1)(-1,0)(-1,1)(0, -2)(0,-1)(0,0)(0,1)(0,2)(1,-1)(1,0)(1,1)(2,0)</t>
   </si>
   <si>
-    <t>(0,0)</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>SubSpellID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All=0
+Self=1
+Us=2
+Them=3
+None=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point=1
+Array=2
+Global=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None = 1,
+Straight,
+Parabola,
+Through,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,9 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -540,111 +562,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="85" x14ac:dyDescent="0.4">
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
+      <c r="N2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -653,39 +655,42 @@
         <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -694,39 +699,40 @@
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1"/>
       <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -735,39 +741,42 @@
         <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -776,39 +785,40 @@
         <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -817,56 +827,102 @@
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>39</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>100</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8">
+      <c r="I9">
         <v>-1</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>-1</v>
       </c>
     </row>
@@ -875,7 +931,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F7" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:F8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/Spell.xlsx
+++ b/Excel/Spell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4F168-9114-4BDD-858C-EC102C8721C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E968B092-A611-4714-818C-1DE028604146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>14</t>
-  </si>
-  <si>
-    <t>不死之煙</t>
   </si>
   <si>
     <t>對四周的敵人造成傷害並回復自己所有的HP</t>
@@ -174,6 +171,22 @@
 Straight,
 Parabola,
 Through,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死之煙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死之煙_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇蹟之雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使範圍內的同伴的攻擊與防禦上升三個回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,30 +575,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="9" max="9" width="13.453125" customWidth="1"/>
     <col min="13" max="13" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="85" x14ac:dyDescent="0.4">
       <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -608,28 +622,28 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -652,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -667,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -696,10 +710,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -738,10 +752,10 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -753,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -782,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
@@ -824,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>
@@ -851,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -866,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -881,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -894,6 +908,9 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
       <c r="D9">
         <v>39</v>
       </c>
@@ -901,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9">
         <v>100</v>
@@ -923,6 +940,50 @@
         <v>1</v>
       </c>
       <c r="N9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>-1</v>
       </c>
     </row>
@@ -931,7 +992,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:F8" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:F7 A8 C8:F8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>